--- a/Smol/PickAndPlace_ModXoSmol.xlsx
+++ b/Smol/PickAndPlace_ModXoSmol.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="PickAndPlace_ModXoSmol" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="PickAndPlace_PCB1_2024-11-05" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="165">
   <si>
     <t>Designator</t>
   </si>
@@ -64,13 +64,10 @@
     <t>C0805</t>
   </si>
   <si>
-    <t>13.791mm</t>
-  </si>
-  <si>
-    <t>15.383mm</t>
-  </si>
-  <si>
-    <t>16.383mm</t>
+    <t>14.605mm</t>
+  </si>
+  <si>
+    <t>15.605mm</t>
   </si>
   <si>
     <t>B</t>
@@ -82,25 +79,25 @@
     <t>C2</t>
   </si>
   <si>
-    <t>17.094mm</t>
-  </si>
-  <si>
-    <t>15.256mm</t>
-  </si>
-  <si>
-    <t>16.256mm</t>
+    <t>17.983mm</t>
+  </si>
+  <si>
+    <t>14.621mm</t>
+  </si>
+  <si>
+    <t>15.621mm</t>
   </si>
   <si>
     <t>C3</t>
   </si>
   <si>
-    <t>20.493mm</t>
-  </si>
-  <si>
-    <t>15.154mm</t>
-  </si>
-  <si>
-    <t>16.154mm</t>
+    <t>21.382mm</t>
+  </si>
+  <si>
+    <t>14.519mm</t>
+  </si>
+  <si>
+    <t>15.519mm</t>
   </si>
   <si>
     <t>C4</t>
@@ -109,403 +106,403 @@
     <t>100nF</t>
   </si>
   <si>
-    <t>23.675mm</t>
+    <t>24.691mm</t>
   </si>
   <si>
     <t>C5</t>
   </si>
   <si>
-    <t>14.478mm</t>
+    <t>19.841mm</t>
+  </si>
+  <si>
+    <t>9.82mm</t>
+  </si>
+  <si>
+    <t>20.841mm</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>34.454mm</t>
+  </si>
+  <si>
+    <t>14.011mm</t>
+  </si>
+  <si>
+    <t>35.454mm</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>1N4148WS-V-GS18</t>
+  </si>
+  <si>
+    <t>SOD-323_L1.8-W1.3-LS2.7-RD</t>
+  </si>
+  <si>
+    <t>12.573mm</t>
+  </si>
+  <si>
+    <t>15.367mm</t>
+  </si>
+  <si>
+    <t>11.463mm</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>DISP</t>
+  </si>
+  <si>
+    <t>SM06B-SRSS-TB(LF)(SN)</t>
+  </si>
+  <si>
+    <t>CONN-SMD_SM06B-SRSS-TB-LF-SN</t>
+  </si>
+  <si>
+    <t>9.144mm</t>
+  </si>
+  <si>
+    <t>6.477mm</t>
+  </si>
+  <si>
+    <t>6.644mm</t>
+  </si>
+  <si>
+    <t>8.415mm</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>Test-Point</t>
+  </si>
+  <si>
+    <t>Test-Point-0.5mm</t>
+  </si>
+  <si>
+    <t>6.985mm</t>
+  </si>
+  <si>
+    <t>14.689mm</t>
+  </si>
+  <si>
+    <t>i2c_EXP</t>
+  </si>
+  <si>
+    <t>28.882mm</t>
+  </si>
+  <si>
+    <t>6.445mm</t>
+  </si>
+  <si>
+    <t>26.382mm</t>
+  </si>
+  <si>
+    <t>8.382mm</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>220OHM-0805L</t>
+  </si>
+  <si>
+    <t>L0805</t>
+  </si>
+  <si>
+    <t>8.84mm</t>
+  </si>
+  <si>
+    <t>11.006mm</t>
+  </si>
+  <si>
+    <t>9.806mm</t>
+  </si>
+  <si>
+    <t>LED1</t>
+  </si>
+  <si>
+    <t>SZYY0805B</t>
+  </si>
+  <si>
+    <t>LED0805-R-RD_BLUE</t>
+  </si>
+  <si>
+    <t>39.198mm</t>
+  </si>
+  <si>
+    <t>10.435mm</t>
+  </si>
+  <si>
+    <t>40.248mm</t>
+  </si>
+  <si>
+    <t>LED2</t>
+  </si>
+  <si>
+    <t>39.423mm</t>
+  </si>
+  <si>
+    <t>15.039mm</t>
+  </si>
+  <si>
+    <t>40.473mm</t>
+  </si>
+  <si>
+    <t>LPC</t>
+  </si>
+  <si>
+    <t>Header-Female-2.54_2x8</t>
+  </si>
+  <si>
+    <t>HDR-TH_16P-P2.54-V-F-R2-C8-S2.54</t>
+  </si>
+  <si>
+    <t>8.763mm</t>
+  </si>
+  <si>
+    <t>29.337mm</t>
   </si>
   <si>
     <t>10.033mm</t>
   </si>
   <si>
-    <t>15.478mm</t>
-  </si>
-  <si>
-    <t>C6</t>
+    <t>20.447mm</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>PROG</t>
+  </si>
+  <si>
+    <t>Header-Male-2.54_1x8</t>
+  </si>
+  <si>
+    <t>HDR-TH_8P-P2.54-V-M</t>
+  </si>
+  <si>
+    <t>40.386mm</t>
+  </si>
+  <si>
+    <t>30.734mm</t>
+  </si>
+  <si>
+    <t>39.624mm</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>100Ω</t>
+  </si>
+  <si>
+    <t>R0805</t>
+  </si>
+  <si>
+    <t>36.951mm</t>
+  </si>
+  <si>
+    <t>38.786mm</t>
+  </si>
+  <si>
+    <t>37.786mm</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>34.468mm</t>
+  </si>
+  <si>
+    <t>33.468mm</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>36.927mm</t>
+  </si>
+  <si>
+    <t>29.896mm</t>
+  </si>
+  <si>
+    <t>28.896mm</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>36.957mm</t>
+  </si>
+  <si>
+    <t>25.273mm</t>
+  </si>
+  <si>
+    <t>24.273mm</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>10Ω</t>
+  </si>
+  <si>
+    <t>39.21mm</t>
+  </si>
+  <si>
+    <t>6.879mm</t>
+  </si>
+  <si>
+    <t>38.21mm</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>800Ω</t>
+  </si>
+  <si>
+    <t>34.851mm</t>
+  </si>
+  <si>
+    <t>11.229mm</t>
+  </si>
+  <si>
+    <t>10.229mm</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>2kΩ</t>
+  </si>
+  <si>
+    <t>34.552mm</t>
+  </si>
+  <si>
+    <t>28.679mm</t>
+  </si>
+  <si>
+    <t>35.552mm</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>24.987mm</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>34.561mm</t>
+  </si>
+  <si>
+    <t>21.325mm</t>
+  </si>
+  <si>
+    <t>35.561mm</t>
+  </si>
+  <si>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>17.5mm</t>
+  </si>
+  <si>
+    <t>RGB</t>
+  </si>
+  <si>
+    <t>21.971mm</t>
+  </si>
+  <si>
+    <t>11.176mm</t>
+  </si>
+  <si>
+    <t>RGB_EXP</t>
+  </si>
+  <si>
+    <t>19.05mm</t>
+  </si>
+  <si>
+    <t>16.55mm</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>RP2040-TINY</t>
+  </si>
+  <si>
+    <t>COMM-SMD_23P-P2.54-L23.5-W18.0_RP2040-TINY</t>
+  </si>
+  <si>
+    <t>24.257mm</t>
+  </si>
+  <si>
+    <t>27.432mm</t>
+  </si>
+  <si>
+    <t>33.257mm</t>
+  </si>
+  <si>
+    <t>38.387mm</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>STM32F030C8T6</t>
+  </si>
+  <si>
+    <t>LQFP-48_L7.0-W7.0-P0.50-LS9.0-BL</t>
+  </si>
+  <si>
+    <t>24.003mm</t>
+  </si>
+  <si>
+    <t>25.146mm</t>
+  </si>
+  <si>
+    <t>26.753mm</t>
+  </si>
+  <si>
+    <t>20.896mm</t>
+  </si>
+  <si>
+    <t>U3</t>
   </si>
   <si>
     <t>34.417mm</t>
   </si>
   <si>
-    <t>35.417mm</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>1N4148WS-V-GS18</t>
-  </si>
-  <si>
-    <t>SOD-323_L1.8-W1.3-LS2.7-RD</t>
-  </si>
-  <si>
-    <t>11.176mm</t>
-  </si>
-  <si>
-    <t>12.7mm</t>
-  </si>
-  <si>
-    <t>10.066mm</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>DISP1</t>
-  </si>
-  <si>
-    <t>SM06B-SRSS-TB(LF)(SN)</t>
-  </si>
-  <si>
-    <t>CONN-SMD_SM06B-SRSS-TB-LF-SN</t>
+    <t>38.481mm</t>
+  </si>
+  <si>
+    <t>31.917mm</t>
+  </si>
+  <si>
+    <t>36.543mm</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>AP2210K-3.3TRG1</t>
+  </si>
+  <si>
+    <t>SOT-23-5_L3.0-W1.7-P0.95-LS2.8-BR</t>
   </si>
   <si>
     <t>8.89mm</t>
   </si>
   <si>
-    <t>6.477mm</t>
-  </si>
-  <si>
-    <t>6.39mm</t>
-  </si>
-  <si>
-    <t>8.415mm</t>
-  </si>
-  <si>
-    <t>DO1</t>
-  </si>
-  <si>
-    <t>Test-Point</t>
-  </si>
-  <si>
-    <t>Test-Point-0.5mm</t>
-  </si>
-  <si>
-    <t>6.858mm</t>
-  </si>
-  <si>
-    <t>i2c_EXP1</t>
-  </si>
-  <si>
-    <t>29.591mm</t>
-  </si>
-  <si>
-    <t>27.091mm</t>
-  </si>
-  <si>
-    <t>L1</t>
-  </si>
-  <si>
-    <t>220OHM-0805L</t>
-  </si>
-  <si>
-    <t>L0805</t>
-  </si>
-  <si>
-    <t>8.128mm</t>
-  </si>
-  <si>
-    <t>11.303mm</t>
-  </si>
-  <si>
-    <t>9.094mm</t>
-  </si>
-  <si>
-    <t>LED1</t>
-  </si>
-  <si>
-    <t>SZYY0805B</t>
-  </si>
-  <si>
-    <t>LED0805-R-RD_BLUE</t>
-  </si>
-  <si>
-    <t>40.087mm</t>
-  </si>
-  <si>
-    <t>9.8mm</t>
-  </si>
-  <si>
-    <t>41.137mm</t>
-  </si>
-  <si>
-    <t>LED2</t>
-  </si>
-  <si>
-    <t>40.132mm</t>
-  </si>
-  <si>
-    <t>14.986mm</t>
-  </si>
-  <si>
-    <t>41.182mm</t>
-  </si>
-  <si>
-    <t>LPC1</t>
-  </si>
-  <si>
-    <t>Header-Female-2.54_2x8</t>
-  </si>
-  <si>
-    <t>HDR-TH_16P-P2.54-V-F-R2-C8-S2.54</t>
-  </si>
-  <si>
-    <t>8.509mm</t>
-  </si>
-  <si>
-    <t>29.464mm</t>
-  </si>
-  <si>
-    <t>9.779mm</t>
-  </si>
-  <si>
-    <t>20.574mm</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>PROG1</t>
-  </si>
-  <si>
-    <t>Header-Male-2.54_1x8</t>
-  </si>
-  <si>
-    <t>HDR-TH_8P-P2.54-V-M</t>
-  </si>
-  <si>
-    <t>40.513mm</t>
-  </si>
-  <si>
-    <t>29.337mm</t>
-  </si>
-  <si>
-    <t>38.227mm</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>100Ω</t>
-  </si>
-  <si>
-    <t>R0805</t>
-  </si>
-  <si>
-    <t>37.078mm</t>
-  </si>
-  <si>
-    <t>36.627mm</t>
-  </si>
-  <si>
-    <t>35.627mm</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>37.084mm</t>
-  </si>
-  <si>
-    <t>32.258mm</t>
-  </si>
-  <si>
-    <t>31.258mm</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>27.94mm</t>
-  </si>
-  <si>
-    <t>26.94mm</t>
-  </si>
-  <si>
-    <t>R4</t>
-  </si>
-  <si>
-    <t>23.622mm</t>
-  </si>
-  <si>
-    <t>22.622mm</t>
-  </si>
-  <si>
-    <t>R5</t>
-  </si>
-  <si>
-    <t>10Ω</t>
-  </si>
-  <si>
-    <t>39.243mm</t>
-  </si>
-  <si>
-    <t>5.715mm</t>
-  </si>
-  <si>
-    <t>38.243mm</t>
-  </si>
-  <si>
-    <t>R6</t>
-  </si>
-  <si>
-    <t>800Ω</t>
-  </si>
-  <si>
-    <t>35.56mm</t>
-  </si>
-  <si>
-    <t>11.684mm</t>
-  </si>
-  <si>
-    <t>10.684mm</t>
-  </si>
-  <si>
-    <t>R7</t>
-  </si>
-  <si>
-    <t>2kΩ</t>
-  </si>
-  <si>
-    <t>33.663mm</t>
-  </si>
-  <si>
-    <t>31.092mm</t>
-  </si>
-  <si>
-    <t>34.663mm</t>
-  </si>
-  <si>
-    <t>R8</t>
-  </si>
-  <si>
-    <t>33.917mm</t>
-  </si>
-  <si>
-    <t>24.352mm</t>
-  </si>
-  <si>
-    <t>34.917mm</t>
-  </si>
-  <si>
-    <t>R9</t>
-  </si>
-  <si>
-    <t>33.672mm</t>
-  </si>
-  <si>
-    <t>27.421mm</t>
-  </si>
-  <si>
-    <t>34.672mm</t>
-  </si>
-  <si>
-    <t>R10</t>
-  </si>
-  <si>
-    <t>34.053mm</t>
-  </si>
-  <si>
-    <t>20.167mm</t>
-  </si>
-  <si>
-    <t>35.053mm</t>
-  </si>
-  <si>
-    <t>RGB1</t>
-  </si>
-  <si>
-    <t>23.368mm</t>
-  </si>
-  <si>
-    <t>10.811mm</t>
-  </si>
-  <si>
-    <t>RGB_EXP1</t>
-  </si>
-  <si>
-    <t>19.177mm</t>
-  </si>
-  <si>
-    <t>16.677mm</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>RP2040-TINY</t>
-  </si>
-  <si>
-    <t>COMM-SMD_23P-P2.54-L23.5-W18.0_RP2040-TINY</t>
-  </si>
-  <si>
-    <t>24.638mm</t>
-  </si>
-  <si>
-    <t>26.543mm</t>
-  </si>
-  <si>
-    <t>33.638mm</t>
-  </si>
-  <si>
-    <t>37.498mm</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>STM32F030C8T6</t>
-  </si>
-  <si>
-    <t>LQFP-48_L7.0-W7.0-P0.50-LS9.0-BL</t>
-  </si>
-  <si>
-    <t>23.876mm</t>
-  </si>
-  <si>
-    <t>25.273mm</t>
-  </si>
-  <si>
-    <t>26.626mm</t>
-  </si>
-  <si>
-    <t>21.023mm</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>33.909mm</t>
-  </si>
-  <si>
-    <t>38.481mm</t>
-  </si>
-  <si>
-    <t>31.409mm</t>
-  </si>
-  <si>
-    <t>36.543mm</t>
-  </si>
-  <si>
-    <t>U5</t>
-  </si>
-  <si>
-    <t>AP2210K-3.3TRG1</t>
-  </si>
-  <si>
-    <t>SOT-23-5_L3.0-W1.7-P0.95-LS2.8-BR</t>
-  </si>
-  <si>
-    <t>8.636mm</t>
-  </si>
-  <si>
-    <t>15.621mm</t>
-  </si>
-  <si>
-    <t>7.336mm</t>
+    <t>7.59mm</t>
   </si>
   <si>
     <t>14.671mm</t>
@@ -952,31 +949,31 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
         <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J2">
         <v>2</v>
       </c>
       <c r="K2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L2">
         <v>270</v>
       </c>
       <c r="M2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N2" t="s">
         <v>15</v>
@@ -984,7 +981,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -993,34 +990,34 @@
         <v>16</v>
       </c>
       <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
         <v>23</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
         <v>24</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" t="s">
-        <v>25</v>
       </c>
       <c r="J3">
         <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L3">
         <v>270</v>
       </c>
       <c r="M3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N3" t="s">
         <v>15</v>
@@ -1028,7 +1025,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -1037,34 +1034,34 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
         <v>27</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
         <v>28</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" t="s">
-        <v>29</v>
       </c>
       <c r="J4">
         <v>2</v>
       </c>
       <c r="K4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L4">
         <v>270</v>
       </c>
       <c r="M4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N4" t="s">
         <v>15</v>
@@ -1072,134 +1069,134 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
         <v>30</v>
-      </c>
-      <c r="B5" t="s">
-        <v>31</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" t="s">
         <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" t="s">
-        <v>29</v>
       </c>
       <c r="J5">
         <v>2</v>
       </c>
       <c r="K5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L5">
         <v>270</v>
       </c>
       <c r="M5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
       </c>
       <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
         <v>34</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" t="s">
         <v>35</v>
       </c>
-      <c r="F6" t="s">
+      <c r="I6" t="s">
         <v>34</v>
-      </c>
-      <c r="G6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" t="s">
-        <v>35</v>
       </c>
       <c r="J6">
         <v>2</v>
       </c>
       <c r="K6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L6">
         <v>180</v>
       </c>
       <c r="M6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
       </c>
       <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
         <v>38</v>
       </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
       <c r="F7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" t="s">
         <v>38</v>
-      </c>
-      <c r="G7" t="s">
-        <v>19</v>
       </c>
       <c r="H7" t="s">
         <v>39</v>
       </c>
       <c r="I7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="J7">
         <v>2</v>
       </c>
       <c r="K7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L7">
         <v>180</v>
       </c>
       <c r="M7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1240,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N8" t="s">
         <v>41</v>
@@ -1284,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N9" t="s">
         <v>48</v>
@@ -1304,19 +1301,19 @@
         <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="F10" t="s">
         <v>57</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="H10" t="s">
         <v>57</v>
       </c>
       <c r="I10" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1328,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N10" t="s">
         <v>55</v>
@@ -1336,7 +1333,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B11" t="s">
         <v>48</v>
@@ -1345,22 +1342,22 @@
         <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G11" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="H11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I11" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="J11">
         <v>8</v>
@@ -1372,7 +1369,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N11" t="s">
         <v>48</v>
@@ -1380,75 +1377,75 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F12" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G12" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I12" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J12">
         <v>2</v>
       </c>
       <c r="K12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L12">
         <v>180</v>
       </c>
       <c r="M12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N12" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F13" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H13" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J13">
         <v>2</v>
@@ -1460,39 +1457,39 @@
         <v>0</v>
       </c>
       <c r="M13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N13" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D14" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E14" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F14" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G14" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H14" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I14" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J14">
         <v>2</v>
@@ -1504,39 +1501,39 @@
         <v>0</v>
       </c>
       <c r="M14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N14" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B15" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C15" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D15" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E15" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F15" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G15" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H15" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I15" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="J15">
         <v>16</v>
@@ -1548,39 +1545,39 @@
         <v>90</v>
       </c>
       <c r="M15" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="N15" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D16" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E16" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F16" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G16" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H16" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I16" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J16">
         <v>8</v>
@@ -1592,39 +1589,39 @@
         <v>270</v>
       </c>
       <c r="M16" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="N16" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B17" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C17" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D17" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E17" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F17" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G17" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H17" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I17" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="J17">
         <v>2</v>
@@ -1636,39 +1633,39 @@
         <v>90</v>
       </c>
       <c r="M17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N17" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" t="s">
         <v>97</v>
       </c>
-      <c r="B18" t="s">
-        <v>92</v>
-      </c>
-      <c r="C18" t="s">
-        <v>93</v>
-      </c>
-      <c r="D18" t="s">
-        <v>98</v>
-      </c>
       <c r="E18" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G18" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I18" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="J18">
         <v>2</v>
@@ -1680,39 +1677,39 @@
         <v>90</v>
       </c>
       <c r="M18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N18" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B19" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C19" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D19" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E19" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F19" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="G19" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H19" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="I19" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="J19">
         <v>2</v>
@@ -1724,39 +1721,39 @@
         <v>90</v>
       </c>
       <c r="M19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N19" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C20" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D20" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E20" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F20" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="G20" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H20" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="I20" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="J20">
         <v>2</v>
@@ -1768,39 +1765,39 @@
         <v>90</v>
       </c>
       <c r="M20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N20" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C21" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D21" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E21" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F21" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G21" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="H21" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="I21" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="J21">
         <v>2</v>
@@ -1812,39 +1809,39 @@
         <v>0</v>
       </c>
       <c r="M21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N21" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B22" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C22" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D22" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E22" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F22" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G22" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H22" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="I22" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="J22">
         <v>2</v>
@@ -1856,186 +1853,186 @@
         <v>90</v>
       </c>
       <c r="M22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N22" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B23" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C23" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D23" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E23" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F23" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G23" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H23" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="I23" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="J23">
         <v>2</v>
       </c>
       <c r="K23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L23">
         <v>180</v>
       </c>
       <c r="M23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N23" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" t="s">
         <v>122</v>
       </c>
-      <c r="B24" t="s">
-        <v>118</v>
-      </c>
       <c r="C24" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D24" t="s">
         <v>123</v>
       </c>
       <c r="E24" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F24" t="s">
         <v>123</v>
       </c>
       <c r="G24" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H24" t="s">
         <v>125</v>
       </c>
       <c r="I24" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="J24">
         <v>2</v>
       </c>
       <c r="K24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L24">
         <v>180</v>
       </c>
       <c r="M24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N24" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B25" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C25" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D25" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E25" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F25" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G25" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H25" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I25" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J25">
         <v>2</v>
       </c>
       <c r="K25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L25">
         <v>180</v>
       </c>
       <c r="M25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N25" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B26" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C26" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D26" t="s">
+        <v>129</v>
+      </c>
+      <c r="E26" t="s">
+        <v>133</v>
+      </c>
+      <c r="F26" t="s">
+        <v>129</v>
+      </c>
+      <c r="G26" t="s">
+        <v>133</v>
+      </c>
+      <c r="H26" t="s">
         <v>131</v>
       </c>
-      <c r="E26" t="s">
-        <v>132</v>
-      </c>
-      <c r="F26" t="s">
-        <v>131</v>
-      </c>
-      <c r="G26" t="s">
-        <v>132</v>
-      </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>133</v>
-      </c>
-      <c r="I26" t="s">
-        <v>132</v>
       </c>
       <c r="J26">
         <v>2</v>
       </c>
       <c r="K26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L26">
         <v>180</v>
       </c>
       <c r="M26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N26" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -2076,7 +2073,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N27" t="s">
         <v>55</v>
@@ -2120,7 +2117,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N28" t="s">
         <v>48</v>
@@ -2164,7 +2161,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N29" t="s">
         <v>141</v>
@@ -2202,13 +2199,13 @@
         <v>48</v>
       </c>
       <c r="K30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L30">
         <v>180</v>
       </c>
       <c r="M30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N30" t="s">
         <v>148</v>
@@ -2246,13 +2243,13 @@
         <v>8</v>
       </c>
       <c r="K31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
       <c r="M31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N31" t="s">
         <v>48</v>
@@ -2272,31 +2269,31 @@
         <v>162</v>
       </c>
       <c r="E32" t="s">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c r="F32" t="s">
         <v>162</v>
       </c>
       <c r="G32" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" t="s">
         <v>163</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>164</v>
-      </c>
-      <c r="I32" t="s">
-        <v>165</v>
       </c>
       <c r="J32">
         <v>5</v>
       </c>
       <c r="K32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L32">
         <v>180</v>
       </c>
       <c r="M32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N32" t="s">
         <v>160</v>

--- a/Smol/PickAndPlace_ModXoSmol.xlsx
+++ b/Smol/PickAndPlace_ModXoSmol.xlsx
@@ -232,25 +232,25 @@
     <t>LED0805-R-RD_BLUE</t>
   </si>
   <si>
-    <t>39.198mm</t>
-  </si>
-  <si>
-    <t>10.435mm</t>
-  </si>
-  <si>
-    <t>40.248mm</t>
+    <t>41.23mm</t>
+  </si>
+  <si>
+    <t>14.372mm</t>
+  </si>
+  <si>
+    <t>15.422mm</t>
   </si>
   <si>
     <t>LED2</t>
   </si>
   <si>
-    <t>39.423mm</t>
-  </si>
-  <si>
-    <t>15.039mm</t>
-  </si>
-  <si>
-    <t>40.473mm</t>
+    <t>37.518mm</t>
+  </si>
+  <si>
+    <t>14.277mm</t>
+  </si>
+  <si>
+    <t>15.327mm</t>
   </si>
   <si>
     <t>LPC</t>
@@ -352,13 +352,13 @@
     <t>10Ω</t>
   </si>
   <si>
-    <t>39.21mm</t>
-  </si>
-  <si>
-    <t>6.879mm</t>
-  </si>
-  <si>
-    <t>38.21mm</t>
+    <t>36.924mm</t>
+  </si>
+  <si>
+    <t>18.69mm</t>
+  </si>
+  <si>
+    <t>17.69mm</t>
   </si>
   <si>
     <t>R6</t>
@@ -367,13 +367,13 @@
     <t>800Ω</t>
   </si>
   <si>
-    <t>34.851mm</t>
-  </si>
-  <si>
-    <t>11.229mm</t>
-  </si>
-  <si>
-    <t>10.229mm</t>
+    <t>40.693mm</t>
+  </si>
+  <si>
+    <t>17.96mm</t>
+  </si>
+  <si>
+    <t>39.693mm</t>
   </si>
   <si>
     <t>R7</t>
@@ -418,7 +418,7 @@
     <t>RGB</t>
   </si>
   <si>
-    <t>21.971mm</t>
+    <t>22.987mm</t>
   </si>
   <si>
     <t>11.176mm</t>
@@ -463,16 +463,16 @@
     <t>LQFP-48_L7.0-W7.0-P0.50-LS9.0-BL</t>
   </si>
   <si>
-    <t>24.003mm</t>
-  </si>
-  <si>
-    <t>25.146mm</t>
-  </si>
-  <si>
-    <t>26.753mm</t>
-  </si>
-  <si>
-    <t>20.896mm</t>
+    <t>22.606mm</t>
+  </si>
+  <si>
+    <t>24.892mm</t>
+  </si>
+  <si>
+    <t>25.356mm</t>
+  </si>
+  <si>
+    <t>20.642mm</t>
   </si>
   <si>
     <t>U3</t>
@@ -1442,10 +1442,10 @@
         <v>74</v>
       </c>
       <c r="H13" t="s">
+        <v>73</v>
+      </c>
+      <c r="I13" t="s">
         <v>75</v>
-      </c>
-      <c r="I13" t="s">
-        <v>74</v>
       </c>
       <c r="J13">
         <v>2</v>
@@ -1454,7 +1454,7 @@
         <v>46</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M13" t="s">
         <v>20</v>
@@ -1486,10 +1486,10 @@
         <v>78</v>
       </c>
       <c r="H14" t="s">
+        <v>77</v>
+      </c>
+      <c r="I14" t="s">
         <v>79</v>
-      </c>
-      <c r="I14" t="s">
-        <v>78</v>
       </c>
       <c r="J14">
         <v>2</v>
@@ -1498,7 +1498,7 @@
         <v>46</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M14" t="s">
         <v>20</v>
@@ -1794,10 +1794,10 @@
         <v>114</v>
       </c>
       <c r="H21" t="s">
+        <v>113</v>
+      </c>
+      <c r="I21" t="s">
         <v>115</v>
-      </c>
-      <c r="I21" t="s">
-        <v>114</v>
       </c>
       <c r="J21">
         <v>2</v>
@@ -1806,7 +1806,7 @@
         <v>46</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M21" t="s">
         <v>20</v>
@@ -1838,10 +1838,10 @@
         <v>119</v>
       </c>
       <c r="H22" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J22">
         <v>2</v>
@@ -1850,7 +1850,7 @@
         <v>46</v>
       </c>
       <c r="L22">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M22" t="s">
         <v>20</v>

--- a/Smol/PickAndPlace_ModXoSmol.xlsx
+++ b/Smol/PickAndPlace_ModXoSmol.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="PickAndPlace_PCB1_2024-11-05" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="PickAndPlace_PCB1_2024-11-14" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="165">
   <si>
     <t>Designator</t>
   </si>
@@ -64,10 +64,13 @@
     <t>C0805</t>
   </si>
   <si>
-    <t>14.605mm</t>
-  </si>
-  <si>
-    <t>15.605mm</t>
+    <t>16.129mm</t>
+  </si>
+  <si>
+    <t>13.589mm</t>
+  </si>
+  <si>
+    <t>17.129mm</t>
   </si>
   <si>
     <t>B</t>
@@ -79,25 +82,19 @@
     <t>C2</t>
   </si>
   <si>
-    <t>17.983mm</t>
-  </si>
-  <si>
-    <t>14.621mm</t>
-  </si>
-  <si>
-    <t>15.621mm</t>
+    <t>10.287mm</t>
   </si>
   <si>
     <t>C3</t>
   </si>
   <si>
-    <t>21.382mm</t>
-  </si>
-  <si>
-    <t>14.519mm</t>
-  </si>
-  <si>
-    <t>15.519mm</t>
+    <t>14.224mm</t>
+  </si>
+  <si>
+    <t>19.431mm</t>
+  </si>
+  <si>
+    <t>15.224mm</t>
   </si>
   <si>
     <t>C4</t>
@@ -106,31 +103,25 @@
     <t>100nF</t>
   </si>
   <si>
-    <t>24.691mm</t>
+    <t>14.351mm</t>
+  </si>
+  <si>
+    <t>22.86mm</t>
+  </si>
+  <si>
+    <t>15.351mm</t>
   </si>
   <si>
     <t>C5</t>
   </si>
   <si>
-    <t>19.841mm</t>
-  </si>
-  <si>
-    <t>9.82mm</t>
-  </si>
-  <si>
-    <t>20.841mm</t>
+    <t>26.035mm</t>
   </si>
   <si>
     <t>C6</t>
   </si>
   <si>
-    <t>34.454mm</t>
-  </si>
-  <si>
-    <t>14.011mm</t>
-  </si>
-  <si>
-    <t>35.454mm</t>
+    <t>29.337mm</t>
   </si>
   <si>
     <t>D1</t>
@@ -265,9 +256,6 @@
     <t>8.763mm</t>
   </si>
   <si>
-    <t>29.337mm</t>
-  </si>
-  <si>
     <t>10.033mm</t>
   </si>
   <si>
@@ -352,13 +340,13 @@
     <t>10Ω</t>
   </si>
   <si>
-    <t>36.924mm</t>
-  </si>
-  <si>
-    <t>18.69mm</t>
-  </si>
-  <si>
-    <t>17.69mm</t>
+    <t>40.894mm</t>
+  </si>
+  <si>
+    <t>17.653mm</t>
+  </si>
+  <si>
+    <t>39.894mm</t>
   </si>
   <si>
     <t>R6</t>
@@ -367,13 +355,13 @@
     <t>800Ω</t>
   </si>
   <si>
-    <t>40.693mm</t>
-  </si>
-  <si>
-    <t>17.96mm</t>
-  </si>
-  <si>
-    <t>39.693mm</t>
+    <t>37.465mm</t>
+  </si>
+  <si>
+    <t>18.796mm</t>
+  </si>
+  <si>
+    <t>17.796mm</t>
   </si>
   <si>
     <t>R7</t>
@@ -382,37 +370,49 @@
     <t>2kΩ</t>
   </si>
   <si>
-    <t>34.552mm</t>
-  </si>
-  <si>
-    <t>28.679mm</t>
-  </si>
-  <si>
-    <t>35.552mm</t>
+    <t>32.639mm</t>
+  </si>
+  <si>
+    <t>31.242mm</t>
+  </si>
+  <si>
+    <t>31.639mm</t>
   </si>
   <si>
     <t>R8</t>
   </si>
   <si>
-    <t>24.987mm</t>
+    <t>37.219mm</t>
+  </si>
+  <si>
+    <t>28.797mm</t>
+  </si>
+  <si>
+    <t>36.219mm</t>
   </si>
   <si>
     <t>R9</t>
   </si>
   <si>
-    <t>34.561mm</t>
-  </si>
-  <si>
-    <t>21.325mm</t>
-  </si>
-  <si>
-    <t>35.561mm</t>
+    <t>23.368mm</t>
+  </si>
+  <si>
+    <t>16.383mm</t>
+  </si>
+  <si>
+    <t>15.383mm</t>
   </si>
   <si>
     <t>R10</t>
   </si>
   <si>
-    <t>17.5mm</t>
+    <t>33.274mm</t>
+  </si>
+  <si>
+    <t>25.019mm</t>
+  </si>
+  <si>
+    <t>24.019mm</t>
   </si>
   <si>
     <t>RGB</t>
@@ -463,16 +463,10 @@
     <t>LQFP-48_L7.0-W7.0-P0.50-LS9.0-BL</t>
   </si>
   <si>
-    <t>22.606mm</t>
-  </si>
-  <si>
-    <t>24.892mm</t>
-  </si>
-  <si>
-    <t>25.356mm</t>
-  </si>
-  <si>
-    <t>20.642mm</t>
+    <t>25.737mm</t>
+  </si>
+  <si>
+    <t>20.769mm</t>
   </si>
   <si>
     <t>U3</t>
@@ -490,22 +484,28 @@
     <t>36.543mm</t>
   </si>
   <si>
-    <t>U5</t>
-  </si>
-  <si>
-    <t>AP2210K-3.3TRG1</t>
-  </si>
-  <si>
-    <t>SOT-23-5_L3.0-W1.7-P0.95-LS2.8-BR</t>
+    <t>5V</t>
+  </si>
+  <si>
+    <t>41.275mm</t>
   </si>
   <si>
     <t>8.89mm</t>
   </si>
   <si>
-    <t>7.59mm</t>
-  </si>
-  <si>
-    <t>14.671mm</t>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>MIC5504-3.3YM5-TR</t>
+  </si>
+  <si>
+    <t>SOT-23-5_L3.0-W1.7-P0.95-LS2.8-TL</t>
+  </si>
+  <si>
+    <t>10.034mm</t>
+  </si>
+  <si>
+    <t>16.317mm</t>
   </si>
 </sst>
 </file>
@@ -882,7 +882,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100"/>
   </sheetViews>
@@ -949,16 +949,16 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
         <v>18</v>
@@ -967,13 +967,13 @@
         <v>2</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L2">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="M2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N2" t="s">
         <v>15</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -990,34 +990,34 @@
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
         <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
         <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J3">
         <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L3">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="M3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N3" t="s">
         <v>15</v>
@@ -1025,7 +1025,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -1034,34 +1034,34 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
         <v>26</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
         <v>27</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I4" t="s">
         <v>26</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" t="s">
-        <v>28</v>
       </c>
       <c r="J4">
         <v>2</v>
       </c>
       <c r="K4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L4">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="M4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N4" t="s">
         <v>15</v>
@@ -1069,72 +1069,72 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
         <v>29</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
       </c>
       <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
         <v>31</v>
       </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
       <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
         <v>31</v>
       </c>
-      <c r="G5" t="s">
-        <v>27</v>
-      </c>
       <c r="H5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" t="s">
         <v>31</v>
-      </c>
-      <c r="I5" t="s">
-        <v>28</v>
       </c>
       <c r="J5">
         <v>2</v>
       </c>
       <c r="K5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L5">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="M5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
         <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G6" t="s">
         <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I6" t="s">
         <v>34</v>
@@ -1143,875 +1143,875 @@
         <v>2</v>
       </c>
       <c r="K6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L6">
         <v>180</v>
       </c>
       <c r="M6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="I7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J7">
         <v>2</v>
       </c>
       <c r="K7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L7">
         <v>180</v>
       </c>
       <c r="M7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
         <v>40</v>
       </c>
-      <c r="B8" t="s">
+      <c r="E8" t="s">
         <v>41</v>
       </c>
-      <c r="C8" t="s">
+      <c r="F8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" t="s">
         <v>42</v>
       </c>
-      <c r="D8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" t="s">
-        <v>45</v>
-      </c>
       <c r="I8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J8">
         <v>2</v>
       </c>
       <c r="K8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
         <v>47</v>
       </c>
-      <c r="B9" t="s">
+      <c r="E9" t="s">
         <v>48</v>
       </c>
-      <c r="C9" t="s">
+      <c r="F9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" t="s">
         <v>49</v>
       </c>
-      <c r="D9" t="s">
+      <c r="I9" t="s">
         <v>50</v>
-      </c>
-      <c r="E9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I9" t="s">
-        <v>53</v>
       </c>
       <c r="J9">
         <v>8</v>
       </c>
       <c r="K9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" t="s">
         <v>54</v>
       </c>
-      <c r="B10" t="s">
+      <c r="E10" t="s">
         <v>55</v>
       </c>
-      <c r="C10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" t="s">
-        <v>58</v>
-      </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" t="s">
         <v>59</v>
       </c>
-      <c r="B11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="I11" t="s">
         <v>60</v>
-      </c>
-      <c r="E11" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" t="s">
-        <v>61</v>
-      </c>
-      <c r="H11" t="s">
-        <v>62</v>
-      </c>
-      <c r="I11" t="s">
-        <v>63</v>
       </c>
       <c r="J11">
         <v>8</v>
       </c>
       <c r="K11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" t="s">
         <v>64</v>
       </c>
-      <c r="B12" t="s">
+      <c r="E12" t="s">
         <v>65</v>
       </c>
-      <c r="C12" t="s">
+      <c r="F12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" t="s">
         <v>66</v>
       </c>
-      <c r="D12" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" t="s">
-        <v>67</v>
-      </c>
-      <c r="G12" t="s">
-        <v>68</v>
-      </c>
-      <c r="H12" t="s">
-        <v>69</v>
-      </c>
       <c r="I12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J12">
         <v>2</v>
       </c>
       <c r="K12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L12">
         <v>180</v>
       </c>
       <c r="M12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" t="s">
         <v>70</v>
       </c>
-      <c r="B13" t="s">
+      <c r="E13" t="s">
         <v>71</v>
       </c>
-      <c r="C13" t="s">
+      <c r="F13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13" t="s">
         <v>72</v>
-      </c>
-      <c r="D13" t="s">
-        <v>73</v>
-      </c>
-      <c r="E13" t="s">
-        <v>74</v>
-      </c>
-      <c r="F13" t="s">
-        <v>73</v>
-      </c>
-      <c r="G13" t="s">
-        <v>74</v>
-      </c>
-      <c r="H13" t="s">
-        <v>73</v>
-      </c>
-      <c r="I13" t="s">
-        <v>75</v>
       </c>
       <c r="J13">
         <v>2</v>
       </c>
       <c r="K13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L13">
         <v>90</v>
       </c>
       <c r="M13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14" t="s">
         <v>76</v>
-      </c>
-      <c r="B14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" t="s">
-        <v>77</v>
-      </c>
-      <c r="E14" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" t="s">
-        <v>77</v>
-      </c>
-      <c r="G14" t="s">
-        <v>78</v>
-      </c>
-      <c r="H14" t="s">
-        <v>77</v>
-      </c>
-      <c r="I14" t="s">
-        <v>79</v>
       </c>
       <c r="J14">
         <v>2</v>
       </c>
       <c r="K14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L14">
         <v>90</v>
       </c>
       <c r="M14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N14" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" t="s">
         <v>80</v>
       </c>
-      <c r="B15" t="s">
+      <c r="E15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" t="s">
         <v>81</v>
       </c>
-      <c r="C15" t="s">
+      <c r="I15" t="s">
         <v>82</v>
-      </c>
-      <c r="D15" t="s">
-        <v>83</v>
-      </c>
-      <c r="E15" t="s">
-        <v>84</v>
-      </c>
-      <c r="F15" t="s">
-        <v>83</v>
-      </c>
-      <c r="G15" t="s">
-        <v>84</v>
-      </c>
-      <c r="H15" t="s">
-        <v>85</v>
-      </c>
-      <c r="I15" t="s">
-        <v>86</v>
       </c>
       <c r="J15">
         <v>16</v>
       </c>
       <c r="K15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L15">
         <v>90</v>
       </c>
       <c r="M15" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="N15" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" t="s">
         <v>88</v>
       </c>
-      <c r="B16" t="s">
+      <c r="F16" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" t="s">
+        <v>87</v>
+      </c>
+      <c r="I16" t="s">
         <v>89</v>
-      </c>
-      <c r="C16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16" t="s">
-        <v>91</v>
-      </c>
-      <c r="E16" t="s">
-        <v>92</v>
-      </c>
-      <c r="F16" t="s">
-        <v>91</v>
-      </c>
-      <c r="G16" t="s">
-        <v>92</v>
-      </c>
-      <c r="H16" t="s">
-        <v>91</v>
-      </c>
-      <c r="I16" t="s">
-        <v>93</v>
       </c>
       <c r="J16">
         <v>8</v>
       </c>
       <c r="K16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L16">
         <v>270</v>
       </c>
       <c r="M16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="N16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" t="s">
         <v>94</v>
       </c>
-      <c r="B17" t="s">
+      <c r="F17" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" t="s">
+        <v>94</v>
+      </c>
+      <c r="H17" t="s">
+        <v>93</v>
+      </c>
+      <c r="I17" t="s">
         <v>95</v>
-      </c>
-      <c r="C17" t="s">
-        <v>96</v>
-      </c>
-      <c r="D17" t="s">
-        <v>97</v>
-      </c>
-      <c r="E17" t="s">
-        <v>98</v>
-      </c>
-      <c r="F17" t="s">
-        <v>97</v>
-      </c>
-      <c r="G17" t="s">
-        <v>98</v>
-      </c>
-      <c r="H17" t="s">
-        <v>97</v>
-      </c>
-      <c r="I17" t="s">
-        <v>99</v>
       </c>
       <c r="J17">
         <v>2</v>
       </c>
       <c r="K17" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L17">
         <v>90</v>
       </c>
       <c r="M17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N17" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B18" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C18" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D18" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" t="s">
         <v>97</v>
       </c>
-      <c r="E18" t="s">
-        <v>101</v>
-      </c>
       <c r="F18" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" t="s">
         <v>97</v>
       </c>
-      <c r="G18" t="s">
-        <v>101</v>
-      </c>
       <c r="H18" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I18" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="J18">
         <v>2</v>
       </c>
       <c r="K18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L18">
         <v>90</v>
       </c>
       <c r="M18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N18" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C19" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D19" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E19" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F19" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G19" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H19" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I19" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="J19">
         <v>2</v>
       </c>
       <c r="K19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L19">
         <v>90</v>
       </c>
       <c r="M19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N19" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C20" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D20" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F20" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H20" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="I20" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="J20">
         <v>2</v>
       </c>
       <c r="K20" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L20">
         <v>90</v>
       </c>
       <c r="M20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21" t="s">
+        <v>110</v>
+      </c>
+      <c r="F21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G21" t="s">
+        <v>110</v>
+      </c>
+      <c r="H21" t="s">
         <v>111</v>
       </c>
-      <c r="B21" t="s">
-        <v>112</v>
-      </c>
-      <c r="C21" t="s">
-        <v>96</v>
-      </c>
-      <c r="D21" t="s">
-        <v>113</v>
-      </c>
-      <c r="E21" t="s">
-        <v>114</v>
-      </c>
-      <c r="F21" t="s">
-        <v>113</v>
-      </c>
-      <c r="G21" t="s">
-        <v>114</v>
-      </c>
-      <c r="H21" t="s">
-        <v>113</v>
-      </c>
       <c r="I21" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J21">
         <v>2</v>
       </c>
       <c r="K21" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L21">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N21" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>112</v>
+      </c>
+      <c r="B22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" t="s">
+        <v>114</v>
+      </c>
+      <c r="E22" t="s">
+        <v>115</v>
+      </c>
+      <c r="F22" t="s">
+        <v>114</v>
+      </c>
+      <c r="G22" t="s">
+        <v>115</v>
+      </c>
+      <c r="H22" t="s">
+        <v>114</v>
+      </c>
+      <c r="I22" t="s">
         <v>116</v>
-      </c>
-      <c r="B22" t="s">
-        <v>117</v>
-      </c>
-      <c r="C22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D22" t="s">
-        <v>118</v>
-      </c>
-      <c r="E22" t="s">
-        <v>119</v>
-      </c>
-      <c r="F22" t="s">
-        <v>118</v>
-      </c>
-      <c r="G22" t="s">
-        <v>119</v>
-      </c>
-      <c r="H22" t="s">
-        <v>120</v>
-      </c>
-      <c r="I22" t="s">
-        <v>119</v>
       </c>
       <c r="J22">
         <v>2</v>
       </c>
       <c r="K22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N22" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>117</v>
+      </c>
+      <c r="B23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" t="s">
+        <v>119</v>
+      </c>
+      <c r="E23" t="s">
+        <v>120</v>
+      </c>
+      <c r="F23" t="s">
+        <v>119</v>
+      </c>
+      <c r="G23" t="s">
+        <v>120</v>
+      </c>
+      <c r="H23" t="s">
         <v>121</v>
       </c>
-      <c r="B23" t="s">
-        <v>122</v>
-      </c>
-      <c r="C23" t="s">
-        <v>96</v>
-      </c>
-      <c r="D23" t="s">
-        <v>123</v>
-      </c>
-      <c r="E23" t="s">
-        <v>124</v>
-      </c>
-      <c r="F23" t="s">
-        <v>123</v>
-      </c>
-      <c r="G23" t="s">
-        <v>124</v>
-      </c>
-      <c r="H23" t="s">
-        <v>125</v>
-      </c>
       <c r="I23" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="J23">
         <v>2</v>
       </c>
       <c r="K23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L23">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="M23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N23" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B24" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C24" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D24" t="s">
         <v>123</v>
       </c>
       <c r="E24" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F24" t="s">
         <v>123</v>
       </c>
       <c r="G24" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H24" t="s">
         <v>125</v>
       </c>
       <c r="I24" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J24">
         <v>2</v>
       </c>
       <c r="K24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L24">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="M24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N24" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>126</v>
+      </c>
+      <c r="B25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25" t="s">
         <v>128</v>
       </c>
-      <c r="B25" t="s">
-        <v>122</v>
-      </c>
-      <c r="C25" t="s">
-        <v>96</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="F25" t="s">
+        <v>127</v>
+      </c>
+      <c r="G25" t="s">
+        <v>128</v>
+      </c>
+      <c r="H25" t="s">
+        <v>127</v>
+      </c>
+      <c r="I25" t="s">
         <v>129</v>
-      </c>
-      <c r="E25" t="s">
-        <v>130</v>
-      </c>
-      <c r="F25" t="s">
-        <v>129</v>
-      </c>
-      <c r="G25" t="s">
-        <v>130</v>
-      </c>
-      <c r="H25" t="s">
-        <v>131</v>
-      </c>
-      <c r="I25" t="s">
-        <v>130</v>
       </c>
       <c r="J25">
         <v>2</v>
       </c>
       <c r="K25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L25">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="M25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N25" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>130</v>
+      </c>
+      <c r="B26" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" t="s">
+        <v>131</v>
+      </c>
+      <c r="E26" t="s">
         <v>132</v>
       </c>
-      <c r="B26" t="s">
-        <v>122</v>
-      </c>
-      <c r="C26" t="s">
-        <v>96</v>
-      </c>
-      <c r="D26" t="s">
-        <v>129</v>
-      </c>
-      <c r="E26" t="s">
-        <v>133</v>
-      </c>
       <c r="F26" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H26" t="s">
         <v>131</v>
@@ -2023,16 +2023,16 @@
         <v>2</v>
       </c>
       <c r="K26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L26">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="M26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N26" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -2040,10 +2040,10 @@
         <v>134</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D27" t="s">
         <v>135</v>
@@ -2067,16 +2067,16 @@
         <v>1</v>
       </c>
       <c r="K27" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N27" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -2084,43 +2084,43 @@
         <v>137</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D28" t="s">
         <v>138</v>
       </c>
       <c r="E28" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F28" t="s">
         <v>138</v>
       </c>
       <c r="G28" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H28" t="s">
         <v>139</v>
       </c>
       <c r="I28" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J28">
         <v>8</v>
       </c>
       <c r="K28" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L28">
         <v>0</v>
       </c>
       <c r="M28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N28" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -2155,13 +2155,13 @@
         <v>23</v>
       </c>
       <c r="K29" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L29">
         <v>0</v>
       </c>
       <c r="M29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N29" t="s">
         <v>141</v>
@@ -2178,34 +2178,34 @@
         <v>149</v>
       </c>
       <c r="D30" t="s">
+        <v>135</v>
+      </c>
+      <c r="E30" t="s">
+        <v>132</v>
+      </c>
+      <c r="F30" t="s">
+        <v>135</v>
+      </c>
+      <c r="G30" t="s">
+        <v>132</v>
+      </c>
+      <c r="H30" t="s">
         <v>150</v>
       </c>
-      <c r="E30" t="s">
+      <c r="I30" t="s">
         <v>151</v>
-      </c>
-      <c r="F30" t="s">
-        <v>150</v>
-      </c>
-      <c r="G30" t="s">
-        <v>151</v>
-      </c>
-      <c r="H30" t="s">
-        <v>152</v>
-      </c>
-      <c r="I30" t="s">
-        <v>153</v>
       </c>
       <c r="J30">
         <v>48</v>
       </c>
       <c r="K30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L30">
         <v>180</v>
       </c>
       <c r="M30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N30" t="s">
         <v>148</v>
@@ -2213,90 +2213,134 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>152</v>
+      </c>
+      <c r="B31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" t="s">
+        <v>153</v>
+      </c>
+      <c r="E31" t="s">
         <v>154</v>
       </c>
-      <c r="B31" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="F31" t="s">
+        <v>153</v>
+      </c>
+      <c r="G31" t="s">
+        <v>154</v>
+      </c>
+      <c r="H31" t="s">
         <v>155</v>
       </c>
-      <c r="E31" t="s">
+      <c r="I31" t="s">
         <v>156</v>
-      </c>
-      <c r="F31" t="s">
-        <v>155</v>
-      </c>
-      <c r="G31" t="s">
-        <v>156</v>
-      </c>
-      <c r="H31" t="s">
-        <v>157</v>
-      </c>
-      <c r="I31" t="s">
-        <v>158</v>
       </c>
       <c r="J31">
         <v>8</v>
       </c>
       <c r="K31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
       <c r="M31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N31" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>157</v>
+      </c>
+      <c r="B32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" t="s">
+        <v>158</v>
+      </c>
+      <c r="E32" t="s">
         <v>159</v>
       </c>
-      <c r="B32" t="s">
+      <c r="F32" t="s">
+        <v>158</v>
+      </c>
+      <c r="G32" t="s">
+        <v>159</v>
+      </c>
+      <c r="H32" t="s">
+        <v>158</v>
+      </c>
+      <c r="I32" t="s">
+        <v>159</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32" t="s">
+        <v>43</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32" t="s">
+        <v>21</v>
+      </c>
+      <c r="N32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>160</v>
       </c>
-      <c r="C32" t="s">
+      <c r="B33" t="s">
         <v>161</v>
       </c>
-      <c r="D32" t="s">
+      <c r="C33" t="s">
         <v>162</v>
       </c>
-      <c r="E32" t="s">
-        <v>24</v>
-      </c>
-      <c r="F32" t="s">
-        <v>162</v>
-      </c>
-      <c r="G32" t="s">
-        <v>24</v>
-      </c>
-      <c r="H32" t="s">
+      <c r="D33" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33" t="s">
+        <v>80</v>
+      </c>
+      <c r="G33" t="s">
+        <v>41</v>
+      </c>
+      <c r="H33" t="s">
         <v>163</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I33" t="s">
         <v>164</v>
       </c>
-      <c r="J32">
+      <c r="J33">
         <v>5</v>
       </c>
-      <c r="K32" t="s">
-        <v>19</v>
-      </c>
-      <c r="L32">
+      <c r="K33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L33">
         <v>180</v>
       </c>
-      <c r="M32" t="s">
-        <v>20</v>
-      </c>
-      <c r="N32" t="s">
-        <v>160</v>
+      <c r="M33" t="s">
+        <v>21</v>
+      </c>
+      <c r="N33" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
